--- a/Tabelas/Experiências.xlsx
+++ b/Tabelas/Experiências.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\Documents\GitHub\Curriculo-Interativo\Tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC44898-E196-40C6-B828-6DCE91A997BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4FD164-011C-4A97-9650-EE3BEAA33F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Monitor de Cálculo</t>
   </si>
   <si>
-    <t>Atender e sanar dúvidas dos alunos de cálculo 1, cálculo 2 e álgebra linear dos cursos superiores do Intituto Federal de Santa Catarina</t>
-  </si>
-  <si>
     <t>Instituição</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Preparar e ministrar aulas de língua estrangeira para crianças e adultos, corrigir tarefas e realizar testes de nivelamento.</t>
+  </si>
+  <si>
+    <t>Atender e sanar dúvidas dos alunos de cálculo 1, cálculo 2 e álgebra linear dos cursos superiores do Instituto Federal de Santa Catarina</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -101,17 +101,17 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -437,53 +437,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>40912</v>
+        <v>41000</v>
       </c>
       <c r="B2" s="1">
-        <v>41278</v>
+        <v>41365</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42745</v>
+        <v>43009</v>
       </c>
       <c r="B3" s="1">
-        <v>43836</v>
+        <v>43983</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43832</v>
+        <v>43862</v>
       </c>
       <c r="B4" s="1">
-        <v>43841</v>
+        <v>44136</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
